--- a/data/hotels_by_city/Houston/Houston_shard_647.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_647.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55643-d1190229-Reviews-Texas_Inn_Suites-Clute_Texas.html</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
@@ -139,6 +145,195 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1190229-r221591270-Texas_Inn_Suites-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>55643</t>
+  </si>
+  <si>
+    <t>1190229</t>
+  </si>
+  <si>
+    <t>221591270</t>
+  </si>
+  <si>
+    <t>08/13/2014</t>
+  </si>
+  <si>
+    <t>Has bugs.</t>
+  </si>
+  <si>
+    <t>They have a major roach problem. I have stayed in two different rooms and have seen them daily. I have also seen them in the hall and even had one crushed into the blanket on my bed where you could tell it was baked on by the dryer. I guess that's a good thing though that they washed it. They never clean the halls or the stair weeks and the a/c in the rooms is not keeping the room at the set temps it actually shuts off with no way to turn it back on. I think it's been set up that way. The guy that owns it doesn't seem to care because there are plenty of other workers that need rooms too. The pool was also shut down because someone pooped in it. I would like to give it a negative review.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>They have a major roach problem. I have stayed in two different rooms and have seen them daily. I have also seen them in the hall and even had one crushed into the blanket on my bed where you could tell it was baked on by the dryer. I guess that's a good thing though that they washed it. They never clean the halls or the stair weeks and the a/c in the rooms is not keeping the room at the set temps it actually shuts off with no way to turn it back on. I think it's been set up that way. The guy that owns it doesn't seem to care because there are plenty of other workers that need rooms too. The pool was also shut down because someone pooped in it. I would like to give it a negative review.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1190229-r160717029-Texas_Inn_Suites-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>160717029</t>
+  </si>
+  <si>
+    <t>05/14/2013</t>
+  </si>
+  <si>
+    <t>Love this place!!</t>
+  </si>
+  <si>
+    <t>I have stayed here for the past 4 years on and off and absolutely LOVE this hotel.  It's quiet, clean and the price is the cheapest in town!  Their is a good selection in the breakfast, they have free Internet, a pool, and hot tub.  The rooms are clean and the beds are very comfortable.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1190229-r126365286-Texas_Inn_Suites-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>126365286</t>
+  </si>
+  <si>
+    <t>03/19/2012</t>
+  </si>
+  <si>
+    <t>Not worth the money</t>
+  </si>
+  <si>
+    <t>This hotel looks like great on the outside, but beware!!! Here's what I found:1. Room was falling apart. Hair dryer did not work, toilet paper holder kept falling off, toilet seat broke(had to hold it to use the restroom).2. No supplies in the room. When we checked in, the room had only 2 towels. When we asked for more, we had to wait 3 hours for more towels. The attendant told us they were in the dryer.3. No coffee pot, as advertised, in the room.4. The complimentary breakfast was pretty bad. Luke-warm coffee, muffins, bagels, juice. That's it. If you're into nothing but carbs and starches, I guess you could call that a breakfast.5. Upon check-out, the front desk clerk got very rude about me wanting a receipt.6. Hot tub was cold.7. Pool was too small.All in all, I will pay a little bit more and find a good hotel. Will not go back to this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>This hotel looks like great on the outside, but beware!!! Here's what I found:1. Room was falling apart. Hair dryer did not work, toilet paper holder kept falling off, toilet seat broke(had to hold it to use the restroom).2. No supplies in the room. When we checked in, the room had only 2 towels. When we asked for more, we had to wait 3 hours for more towels. The attendant told us they were in the dryer.3. No coffee pot, as advertised, in the room.4. The complimentary breakfast was pretty bad. Luke-warm coffee, muffins, bagels, juice. That's it. If you're into nothing but carbs and starches, I guess you could call that a breakfast.5. Upon check-out, the front desk clerk got very rude about me wanting a receipt.6. Hot tub was cold.7. Pool was too small.All in all, I will pay a little bit more and find a good hotel. Will not go back to this one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1190229-r103650024-Texas_Inn_Suites-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>103650024</t>
+  </si>
+  <si>
+    <t>04/11/2011</t>
+  </si>
+  <si>
+    <t>Yuk</t>
+  </si>
+  <si>
+    <t>The room was clean every day,, the continental breakfast was barely there, no variety,  the hot tub did not work, said they were replacing a burner, never got done, had cigarett butts in the pool and hot tub, had backaches from bed.  Only good thing I can say about this place is it was clean and cheap. Manager was pleasant but workers were unfriendly.</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1190229-r92332289-Texas_Inn_Suites-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>92332289</t>
+  </si>
+  <si>
+    <t>01/09/2011</t>
+  </si>
+  <si>
+    <t>We LOVE this place!!!</t>
+  </si>
+  <si>
+    <t>My Husband &amp; I often choose to stay at the Texas Inn &amp; Suites as a get-away! We live less than 20 miles away from this Hotel, but we LOVE it!! We LOVE the comfortable King size bed, very clean room, and for the inexpensive price of $49.00 it has become our FAVORITE place to stay!!! We have to do so much traveling due to our kids being active in sports, but there hasn't been a hotel that has even come close Texas Inn &amp; Suites!!! I recommend this to anyone traveling to Clute/Lake Jackson!!</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1190229-r84538314-Texas_Inn_Suites-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>84538314</t>
+  </si>
+  <si>
+    <t>10/23/2010</t>
+  </si>
+  <si>
+    <t>Very Nice Place...Cheap Price....Great serice!</t>
+  </si>
+  <si>
+    <t>I have not seen a hotel like this in a very long time! At drive up, the hotel looks very new and clean....Parking is not all that bad either. Front service was very nice and helpful. The room I thought would be just plain and simple like most other hotels.....but was surprised at to see the room was very updated and modern. I would surely recommend this hotel to other family and friends and co workers!</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1190229-r59698269-Texas_Inn_Suites-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>59698269</t>
+  </si>
+  <si>
+    <t>03/27/2010</t>
+  </si>
+  <si>
+    <t>As nice as Holiday Inn Express down the road, for $17 less per night.</t>
+  </si>
+  <si>
+    <t>I have traveled many times to the Freeport-Clute-Lake Jackson area in the past 3 years, primarily as a base for wildlife photography outings at nearby wildlife refuges.  With few exceptions, all reasonable lodging in the area is on Highway 332, across the road from a huge Dow Chemical plant.  There must  be more than a dozen motels nearly side by side.  Most are in the $65 to $80 range and above.  I found this property on another site, and it had good reviews, with online rates of 49.00.  It appeared to be fairly new, based upon one review from 2008.   We found that our king room was every bit as nice as the Holiday Inn Express down the street, with better tasting water, not quite as fancy a showerhead but very full flow.  The breakfast was standard continental fare, as good as HE Express but missing the rubber packaged eggs and cardboard waffles.  Very quiet room, comfortable bed, rooms accessed from controlled hallway, and none face the highway.  Small but adequate pool in the back, which we did not use but others seemed to enjoy.  Microwave and minifridge in room, no coffeemaker in room.  A/C kept the room comfortable and was quiet.  Moderate sized flat screen TV with free HBO channels.  Free wireless internet.  Overall, a nice clean, comfortable room, comparable with Holiday Inn Express for $17 less per night.  And it even had microwave egg boilers (we had to...I have traveled many times to the Freeport-Clute-Lake Jackson area in the past 3 years, primarily as a base for wildlife photography outings at nearby wildlife refuges.  With few exceptions, all reasonable lodging in the area is on Highway 332, across the road from a huge Dow Chemical plant.  There must  be more than a dozen motels nearly side by side.  Most are in the $65 to $80 range and above.  I found this property on another site, and it had good reviews, with online rates of 49.00.  It appeared to be fairly new, based upon one review from 2008.   We found that our king room was every bit as nice as the Holiday Inn Express down the street, with better tasting water, not quite as fancy a showerhead but very full flow.  The breakfast was standard continental fare, as good as HE Express but missing the rubber packaged eggs and cardboard waffles.  Very quiet room, comfortable bed, rooms accessed from controlled hallway, and none face the highway.  Small but adequate pool in the back, which we did not use but others seemed to enjoy.  Microwave and minifridge in room, no coffeemaker in room.  A/C kept the room comfortable and was quiet.  Moderate sized flat screen TV with free HBO channels.  Free wireless internet.  Overall, a nice clean, comfortable room, comparable with Holiday Inn Express for $17 less per night.  And it even had microwave egg boilers (we had to ask the front desk person what they were).  Recommended for business travelers on a budget, and for couples and families.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>I have traveled many times to the Freeport-Clute-Lake Jackson area in the past 3 years, primarily as a base for wildlife photography outings at nearby wildlife refuges.  With few exceptions, all reasonable lodging in the area is on Highway 332, across the road from a huge Dow Chemical plant.  There must  be more than a dozen motels nearly side by side.  Most are in the $65 to $80 range and above.  I found this property on another site, and it had good reviews, with online rates of 49.00.  It appeared to be fairly new, based upon one review from 2008.   We found that our king room was every bit as nice as the Holiday Inn Express down the street, with better tasting water, not quite as fancy a showerhead but very full flow.  The breakfast was standard continental fare, as good as HE Express but missing the rubber packaged eggs and cardboard waffles.  Very quiet room, comfortable bed, rooms accessed from controlled hallway, and none face the highway.  Small but adequate pool in the back, which we did not use but others seemed to enjoy.  Microwave and minifridge in room, no coffeemaker in room.  A/C kept the room comfortable and was quiet.  Moderate sized flat screen TV with free HBO channels.  Free wireless internet.  Overall, a nice clean, comfortable room, comparable with Holiday Inn Express for $17 less per night.  And it even had microwave egg boilers (we had to...I have traveled many times to the Freeport-Clute-Lake Jackson area in the past 3 years, primarily as a base for wildlife photography outings at nearby wildlife refuges.  With few exceptions, all reasonable lodging in the area is on Highway 332, across the road from a huge Dow Chemical plant.  There must  be more than a dozen motels nearly side by side.  Most are in the $65 to $80 range and above.  I found this property on another site, and it had good reviews, with online rates of 49.00.  It appeared to be fairly new, based upon one review from 2008.   We found that our king room was every bit as nice as the Holiday Inn Express down the street, with better tasting water, not quite as fancy a showerhead but very full flow.  The breakfast was standard continental fare, as good as HE Express but missing the rubber packaged eggs and cardboard waffles.  Very quiet room, comfortable bed, rooms accessed from controlled hallway, and none face the highway.  Small but adequate pool in the back, which we did not use but others seemed to enjoy.  Microwave and minifridge in room, no coffeemaker in room.  A/C kept the room comfortable and was quiet.  Moderate sized flat screen TV with free HBO channels.  Free wireless internet.  Overall, a nice clean, comfortable room, comparable with Holiday Inn Express for $17 less per night.  And it even had microwave egg boilers (we had to ask the front desk person what they were).  Recommended for business travelers on a budget, and for couples and families.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1190229-r21577225-Texas_Inn_Suites-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>21577225</t>
+  </si>
+  <si>
+    <t>11/05/2008</t>
+  </si>
+  <si>
+    <t>So Wonderful!!</t>
+  </si>
+  <si>
+    <t>For the price of this hotel....it was wonderful! I did not expect this wonderful place to pop up! There were not many options for hotels around here, so this place won the ticket. I really really enjoyed the hotel! Nice and Clean! Loved my stay =)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1190229-r21107039-Texas_Inn_Suites-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>21107039</t>
+  </si>
+  <si>
+    <t>10/22/2008</t>
+  </si>
+  <si>
+    <t>New Hotel - not bad for price</t>
+  </si>
+  <si>
+    <t>Brand new hotel. I think I was first person to stay in my room. Bed was comfortable. Free breakfast was only so-so. Had small pool. Very close to BASF and DOW plants. Not as nice as a Hampton Inn, but it was still closed after hurricane and would probably been more expensive. ($95/night)</t>
+  </si>
+  <si>
+    <t>October 2008</t>
   </si>
 </sst>
 </file>
@@ -532,11 +727,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +759,648 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>61490</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>61490</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>61490</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>61490</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>61490</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>61490</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>61490</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>61490</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>61490</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_647.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_647.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="145">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1190229-r296149290-Texas_Inn_Suites-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>55643</t>
+  </si>
+  <si>
+    <t>1190229</t>
+  </si>
+  <si>
+    <t>296149290</t>
+  </si>
+  <si>
+    <t>08/05/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 night stay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am very happy with this hotel. The location is easy to get to and easy to drive from. It's right along the highway and halfway between lake Jackson and Freeport. The price was very reasonable for the quality. The beds were comfortable and the room was spacious with a fridge, micro and hair dryer. </t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1190229-r244212807-Texas_Inn_Suites-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>244212807</t>
+  </si>
+  <si>
+    <t>12/12/2014</t>
+  </si>
+  <si>
+    <t>Roaches</t>
+  </si>
+  <si>
+    <t>Good price but the place has bugs. The TV only has 8 English channels and the walls do not have soundproofing. Most people that stay at the hotel work in the plants so the breakfast is put out after everybody has gone to work.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1190229-r221591270-Texas_Inn_Suites-Clute_Texas.html</t>
   </si>
   <si>
-    <t>55643</t>
-  </si>
-  <si>
-    <t>1190229</t>
-  </si>
-  <si>
     <t>221591270</t>
   </si>
   <si>
@@ -174,9 +216,6 @@
     <t>August 2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>They have a major roach problem. I have stayed in two different rooms and have seen them daily. I have also seen them in the hall and even had one crushed into the blanket on my bed where you could tell it was baked on by the dryer. I guess that's a good thing though that they washed it. They never clean the halls or the stair weeks and the a/c in the rooms is not keeping the room at the set temps it actually shuts off with no way to turn it back on. I think it's been set up that way. The guy that owns it doesn't seem to care because there are plenty of other workers that need rooms too. The pool was also shut down because someone pooped in it. I would like to give it a negative review.More</t>
   </si>
   <si>
@@ -219,12 +258,45 @@
     <t>March 2012</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>This hotel looks like great on the outside, but beware!!! Here's what I found:1. Room was falling apart. Hair dryer did not work, toilet paper holder kept falling off, toilet seat broke(had to hold it to use the restroom).2. No supplies in the room. When we checked in, the room had only 2 towels. When we asked for more, we had to wait 3 hours for more towels. The attendant told us they were in the dryer.3. No coffee pot, as advertised, in the room.4. The complimentary breakfast was pretty bad. Luke-warm coffee, muffins, bagels, juice. That's it. If you're into nothing but carbs and starches, I guess you could call that a breakfast.5. Upon check-out, the front desk clerk got very rude about me wanting a receipt.6. Hot tub was cold.7. Pool was too small.All in all, I will pay a little bit more and find a good hotel. Will not go back to this one.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1190229-r122383946-Texas_Inn_Suites-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>122383946</t>
+  </si>
+  <si>
+    <t>01/01/2012</t>
+  </si>
+  <si>
+    <t>Don't stay here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My husband and I are very disappointed with our stay here. Not clean. They have no coffee pots in the room or any to barrow. Once we got in our room, their was someones short black hair in the sink. The bathroom wasn't very clean and there was no toilet paper on the roll. We will not stay here ever again!!! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1190229-r105321123-Texas_Inn_Suites-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>105321123</t>
+  </si>
+  <si>
+    <t>04/24/2011</t>
+  </si>
+  <si>
+    <t>I won't be back</t>
+  </si>
+  <si>
+    <t>The good: Cheap, clean, nice pool. The bad: Surly "service." Free breakfast was not served on time, had terrible coffee and few food choices, air conditioner did not work properly, the safety hinge on the door was broken off, bathroom door did not close properly and the lock did not work. We stayed in this hotel last year and although the surly "service" was a problem then, as it is now, the other problems did not exist. It's too bad they have let this happen. It was a good deal last year, but not any more.</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1190229-r103650024-Texas_Inn_Suites-Clute_Texas.html</t>
   </si>
   <si>
@@ -240,9 +312,6 @@
     <t>The room was clean every day,, the continental breakfast was barely there, no variety,  the hot tub did not work, said they were replacing a burner, never got done, had cigarett butts in the pool and hot tub, had backaches from bed.  Only good thing I can say about this place is it was clean and cheap. Manager was pleasant but workers were unfriendly.</t>
   </si>
   <si>
-    <t>April 2011</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1190229-r92332289-Texas_Inn_Suites-Clute_Texas.html</t>
   </si>
   <si>
@@ -261,9 +330,6 @@
     <t>January 2011</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1190229-r84538314-Texas_Inn_Suites-Clute_Texas.html</t>
   </si>
   <si>
@@ -280,6 +346,61 @@
   </si>
   <si>
     <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1190229-r81661287-Texas_Inn_Suites-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>81661287</t>
+  </si>
+  <si>
+    <t>09/30/2010</t>
+  </si>
+  <si>
+    <t>Cheapest and nicest place to stay in the entire Lake Jackson area</t>
+  </si>
+  <si>
+    <t>I was a little worried when we made the reservation since the room was only $65 after taxes/fees.  We stayed at another place in Clute for about $75 before and were very disappointed.  But, since this hotel looked relatively new (from what information I could find online), we decided to try it out.  All I can say is WOW.  This place was spotlessly clean.  It was so clean that my husband was trying to find something wrong with it because he couldn't believe it was this nice for the low price we paid.  I loved that this place is 100% non-smoking!
+The room was a "no frills" King room.  There is cable tv, but no DVD player.  The toiletries were very basic, but we always bring our own soap and shampoo anyhow so that wasn't an issue.  There was a mini fridge and microwave, but we didn't have a need for it.  The A/C was quiet and didn't smell musty or anything like other places we've stayed.  There was also a free continental breakfast which consisted of juice, milk, mini box cereals and some other ordinary things you would find in a very basic continental breakfast.  
+We didn't use the swimming pool, but hubby went to check it out and said it looked like the chlorine balance was off or something because the water looked green and kinda cloudy.  We didn't stay there to swim though, we came to hang...I was a little worried when we made the reservation since the room was only $65 after taxes/fees.  We stayed at another place in Clute for about $75 before and were very disappointed.  But, since this hotel looked relatively new (from what information I could find online), we decided to try it out.  All I can say is WOW.  This place was spotlessly clean.  It was so clean that my husband was trying to find something wrong with it because he couldn't believe it was this nice for the low price we paid.  I loved that this place is 100% non-smoking!The room was a "no frills" King room.  There is cable tv, but no DVD player.  The toiletries were very basic, but we always bring our own soap and shampoo anyhow so that wasn't an issue.  There was a mini fridge and microwave, but we didn't have a need for it.  The A/C was quiet and didn't smell musty or anything like other places we've stayed.  There was also a free continental breakfast which consisted of juice, milk, mini box cereals and some other ordinary things you would find in a very basic continental breakfast.  We didn't use the swimming pool, but hubby went to check it out and said it looked like the chlorine balance was off or something because the water looked green and kinda cloudy.  We didn't stay there to swim though, we came to hang out on the beach.  However, I hope they fix the pool issue by hiring a reputable pool maintenance person because the wrong Ph and chlorine (or lack thereof) can make people sick.  Overall, the experience was pleasurable and I hope they keep this place top notch because I plan to visit many more times in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>I was a little worried when we made the reservation since the room was only $65 after taxes/fees.  We stayed at another place in Clute for about $75 before and were very disappointed.  But, since this hotel looked relatively new (from what information I could find online), we decided to try it out.  All I can say is WOW.  This place was spotlessly clean.  It was so clean that my husband was trying to find something wrong with it because he couldn't believe it was this nice for the low price we paid.  I loved that this place is 100% non-smoking!
+The room was a "no frills" King room.  There is cable tv, but no DVD player.  The toiletries were very basic, but we always bring our own soap and shampoo anyhow so that wasn't an issue.  There was a mini fridge and microwave, but we didn't have a need for it.  The A/C was quiet and didn't smell musty or anything like other places we've stayed.  There was also a free continental breakfast which consisted of juice, milk, mini box cereals and some other ordinary things you would find in a very basic continental breakfast.  
+We didn't use the swimming pool, but hubby went to check it out and said it looked like the chlorine balance was off or something because the water looked green and kinda cloudy.  We didn't stay there to swim though, we came to hang...I was a little worried when we made the reservation since the room was only $65 after taxes/fees.  We stayed at another place in Clute for about $75 before and were very disappointed.  But, since this hotel looked relatively new (from what information I could find online), we decided to try it out.  All I can say is WOW.  This place was spotlessly clean.  It was so clean that my husband was trying to find something wrong with it because he couldn't believe it was this nice for the low price we paid.  I loved that this place is 100% non-smoking!The room was a "no frills" King room.  There is cable tv, but no DVD player.  The toiletries were very basic, but we always bring our own soap and shampoo anyhow so that wasn't an issue.  There was a mini fridge and microwave, but we didn't have a need for it.  The A/C was quiet and didn't smell musty or anything like other places we've stayed.  There was also a free continental breakfast which consisted of juice, milk, mini box cereals and some other ordinary things you would find in a very basic continental breakfast.  We didn't use the swimming pool, but hubby went to check it out and said it looked like the chlorine balance was off or something because the water looked green and kinda cloudy.  We didn't stay there to swim though, we came to hang out on the beach.  However, I hope they fix the pool issue by hiring a reputable pool maintenance person because the wrong Ph and chlorine (or lack thereof) can make people sick.  Overall, the experience was pleasurable and I hope they keep this place top notch because I plan to visit many more times in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1190229-r64957334-Texas_Inn_Suites-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>64957334</t>
+  </si>
+  <si>
+    <t>05/21/2010</t>
+  </si>
+  <si>
+    <t>They Photo Scanned My Drivers License and Credit Card</t>
+  </si>
+  <si>
+    <t>I was a very upset that they clerk photo scanned my Drivers License and Credit Card using a credit card scanner.  I told him to DELETE that.  There is NO reason that they need my Photo DL on file and my credit card scanned and I'm not even sure if that legal,   Now they have a way to not only make an exact copy of my credit card including sigature, they also have a way to make an TDL.   I'f I didn't know better I thinking that there is some fraud going on there with this clerk.  When I asked why he scanned my TDL and Credit card, He immediatly started telling me a stupid story.     I've NEVER had anyone scan my TDL and Credit Card. The Inn was new and clean and $49 is a bargin for this place with heated pool and hot tub.   The one PET PEEVE that I have is the HOT tub MUST be HOT.   This one was only about 90 degrees and there was not way to turn it up.   I really hate when hotels dont attend to the pool and hot tub.   The room was simple and the Internet worked without security which is another PET PEEVE when it doesnt workMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>texasinn, General Manager at Texas Inn &amp; Suites, responded to this reviewResponded August 26, 2010</t>
+  </si>
+  <si>
+    <t>Responded August 26, 2010</t>
+  </si>
+  <si>
+    <t>I was a very upset that they clerk photo scanned my Drivers License and Credit Card using a credit card scanner.  I told him to DELETE that.  There is NO reason that they need my Photo DL on file and my credit card scanned and I'm not even sure if that legal,   Now they have a way to not only make an exact copy of my credit card including sigature, they also have a way to make an TDL.   I'f I didn't know better I thinking that there is some fraud going on there with this clerk.  When I asked why he scanned my TDL and Credit card, He immediatly started telling me a stupid story.     I've NEVER had anyone scan my TDL and Credit Card. The Inn was new and clean and $49 is a bargin for this place with heated pool and hot tub.   The one PET PEEVE that I have is the HOT tub MUST be HOT.   This one was only about 90 degrees and there was not way to turn it up.   I really hate when hotels dont attend to the pool and hot tub.   The room was simple and the Internet worked without security which is another PET PEEVE when it doesnt workMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1190229-r59698269-Texas_Inn_Suites-Clute_Texas.html</t>
@@ -868,7 +989,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -888,7 +1009,7 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -904,7 +1025,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -913,41 +1034,37 @@
         <v>46</v>
       </c>
       <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>59</v>
       </c>
-      <c r="O3" t="s">
-        <v>60</v>
-      </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>4</v>
-      </c>
-      <c r="S3" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -955,7 +1072,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -971,7 +1088,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -980,49 +1097,39 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
         <v>62</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>63</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>65</v>
       </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>66</v>
-      </c>
       <c r="O4" t="s">
-        <v>67</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
-      <c r="S4" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>2</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -1038,7 +1145,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1047,41 +1154,41 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
         <v>70</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>71</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>72</v>
       </c>
-      <c r="L5" t="s">
+      <c r="O5" t="s">
         <v>73</v>
       </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="s">
-        <v>74</v>
-      </c>
-      <c r="O5" t="s">
-        <v>67</v>
-      </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R5" t="n">
         <v>4</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1089,7 +1196,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -1105,7 +1212,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1114,41 +1221,41 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
         <v>76</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>77</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>78</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
         <v>79</v>
       </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>80</v>
-      </c>
       <c r="O6" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R6" t="n">
         <v>5</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1156,7 +1263,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -1172,7 +1279,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1181,41 +1288,37 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
         <v>83</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>84</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>85</v>
       </c>
-      <c r="L7" t="s">
-        <v>86</v>
-      </c>
       <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>87</v>
-      </c>
-      <c r="O7" t="s">
-        <v>52</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
       <c r="P7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1223,7 +1326,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -1239,7 +1342,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1248,39 +1351,49 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
         <v>89</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>90</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
         <v>91</v>
       </c>
-      <c r="L8" t="s">
+      <c r="O8" t="s">
         <v>92</v>
       </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>93</v>
-      </c>
-      <c r="O8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -1296,7 +1409,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1305,35 +1418,49 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
         <v>96</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>97</v>
       </c>
-      <c r="K9" t="s">
-        <v>98</v>
-      </c>
-      <c r="L9" t="s">
-        <v>99</v>
-      </c>
       <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>91</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
@@ -1349,7 +1476,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1358,41 +1485,41 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
         <v>101</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>102</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>103</v>
       </c>
-      <c r="L10" t="s">
-        <v>104</v>
-      </c>
-      <c r="M10" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s">
-        <v>105</v>
-      </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1400,7 +1527,389 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>61490</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
         <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>61490</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>115</v>
+      </c>
+      <c r="O12" t="s">
+        <v>92</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>61490</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" t="s">
+        <v>123</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>124</v>
+      </c>
+      <c r="X13" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>61490</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>61490</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" t="s">
+        <v>137</v>
+      </c>
+      <c r="L15" t="s">
+        <v>138</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>61490</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
